--- a/Documentação/pinout.xlsx
+++ b/Documentação/pinout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19140" windowHeight="7840"/>
@@ -13,6 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$3:$E$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -686,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
